--- a/Main/test/results/soundsPOS.xlsx
+++ b/Main/test/results/soundsPOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,32 +469,34 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>516.3608417403655</t>
+          <t>516.36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.110263592545396</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.623333153483607</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14.913916769798272</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19.590204084594546</t>
+          <t>19.59</t>
         </is>
       </c>
     </row>
@@ -502,32 +504,34 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.2573893713317086</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.59998029382673</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.562175735512904</t>
+          <t>10.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.781038533880743</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9711306084601468</t>
+          <t>0.97</t>
         </is>
       </c>
     </row>
@@ -535,32 +539,34 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.212722684423459</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.050876755365131</t>
+          <t>15.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.843517309457123</t>
+          <t>21.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14.990633779917228</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9316286784071278</t>
+          <t>0.93</t>
         </is>
       </c>
     </row>
@@ -568,32 +574,34 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13.28187449710459</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.969322275561513</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.623333153483607</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14.913916769798272</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9928384012056932</t>
+          <t>0.99</t>
         </is>
       </c>
     </row>
@@ -601,32 +609,34 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.3003349672552762</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.72880857966937</t>
+          <t>23.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14.950149508618079</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14.990633779917228</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0245011658941354</t>
+          <t>1.02</t>
         </is>
       </c>
     </row>
@@ -634,32 +644,34 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.29774219568695</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>445095.63981536875</t>
+          <t>445095.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.3765885272168477</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.2602957245881612</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.98187443440727</t>
+          <t>0.98</t>
         </is>
       </c>
     </row>
@@ -667,32 +679,34 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11.08999739498091</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.977912061258369</t>
+          <t>14.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.159750525582083</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10.617540851213143</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0002507709689612</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -700,32 +714,34 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16.451418279196215</t>
+          <t>16.45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.571326696542775</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.74866610446609</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>14.990633779917228</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.0878355261039794</t>
+          <t>1.09</t>
         </is>
       </c>
     </row>
@@ -733,32 +749,34 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.2573893713317086</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.777139963398609</t>
+          <t>15.78</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.595871835358086</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>14.990633779917228</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.8017074479042171</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -766,32 +784,34 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.4735932296989953</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.114631552043226</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.316734363271267</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14.871405651335634</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.1347592324061342</t>
+          <t>1.13</t>
         </is>
       </c>
     </row>
@@ -827,6 +847,41 @@
       <c r="G12" t="inlineStr">
         <is>
           <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.99</t>
         </is>
       </c>
     </row>
